--- a/docs/assets/disciplinas/LOQ4001.xlsx
+++ b/docs/assets/disciplinas/LOQ4001.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-6,EQD-6,EQN-7</t>
+    <t>EA-6,EB-5,EQD-6,EQN-6</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -146,7 +146,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4056 -  Química Analítica para Engenharia  (Requisito fraco)
+    <t xml:space="preserve">LOB1212 -  Química Analítica Ambiental II  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOQ4001.xlsx
+++ b/docs/assets/disciplinas/LOQ4001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos as bases teóricas e experimentais dos métodos instrumentais (quantitativos e qualitativos) de uso mais frequente na área química, incluindo o preparo de amostras e a criteriosa avaliação dos resultados analíticos. Ao final da disciplina, o aluno deve ser capaz de escolher e aplicar a metodologia mais adequada à solução dos problemas analíticos em geral, assim como interpretar resultados de análises químicas.</t>
+    <t>2341641 - Maria da Rosa Capri</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>2341641 - Maria da Rosa Capri</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução à Análise Instrumental. Preparo de amostras. Métodos Espectroanalíticos: UV/Visível, Absorção Atômica, Emissão Atômica, Infravermelho. Métodos Eletroanalíticos: Potenciometria e Condutimetria. Métodos Cromatográficos: Cromatografia a Gás e Cromatografia Líquida de Alta Eficiência.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,15 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Introdução à Análise Instrumental. Correlação entre métodos analíticos instrumentais e por via úmida. Preparo de amostras em meio sólido e em meios líquidos aquosos e não aquosos. Solubilização, digestão, fontes de energia aplicadas ao preparo, estabilização de amostras.
-2) Introdução aos Métodos Espectroanalíticos: Natureza da energia radiante. Espectro eletromagnético. Interação da radiação com a matéria. Absorção seletiva. Absortividade. Lei de Beer-Lambert. Curvas analíticas. 
-3) Introdução à Espectrofotometria no UV/Visível. Instrumentação. Aplicações e interpretação de resultados. Determinações simultâneas. Parte Experimental.
-4) Introdução às Espectrometrias de Absorção e de Emissão Atômicas. Instrumentação. Interferências. Origem do espectro de emissão atômica. Fontes de atomização e de excitação. Calibração. Aplicações e interpretação de resultados. Parte Experimental.
-5) Introdução à Espectroscopia no Infravermelho. Instrumentação. Interpretação de espectros. Aplicações. Parte Experimental.
-6) Introdução aos Métodos Eletroanalíticos: Potenciometria e Condutimetria. Instrumentação.  Métodos diretos e indiretos. Aplicações e interpretação de resultados. Parte experimental.
-7) Introdução aos Métodos Cromatográficos. Conceitos básicos dos métodos de separação. Fases móvel e estacionária. Cromatografia planar em papel e em camada delgada. Cromatografia em coluna: cromatografia a gás e cromatografia líquida de alta eficiência. Instrumentação. Aplicações e interpretação de resultados. Parte Experimental.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,35 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação da disciplina será feita por meio de avaliações escritas individuais (provas) e avaliações de atividades em grupo (relatórios das aulas práticas e/ou trabalhos escritos e/ou apresentações de seminários).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Média Final (MF) será calculada pela média entre todas as avaliações realizadas durante o semestre, sendo o conjunto das avaliações individuais correspondentes a 75% da composição de MF e o conjunto das avaliações em grupo correspondentes a 25% da composição de MF. Será aprovado o aluno que obtiver MF maior ou igual a cinco e frequência mínima de 70% no semestre.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>No período de Recuperação haverá horário previamente definido para resolução de dúvidas e será realizada uma avaliação escrita individual (Prova da Recuperação = PR), com conteúdo de todos os tópicos apresentados na disciplina durante o semestre.
 A Nota de Recuperação (NR) será dada pela média aritmética entre a Média do Semestre (MF) e a Prova da Recuperação (PR), sendo considerado aprovado o aluno que obtiver NR maior ou igual a cinco.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) Skoog, D.A.; Holler, F.J. ; Nieman, T.A. Princípios de análise instrumental. 5. ed. Porto Alegre: Bookman,  2002.
-2) MENDHAM,J.; DENNEY, R.C.; BARNES, J.D. ; Thomas, M. Vogel: análise química quantitativa. 6. ed. Rio de Janeiro: Livros Técnicos e Científicos, 2002.
-3) OHLWEILER, O.A. Fundamentos de análise instrumental. Rio de Janeiro: Livros Técnicos e Científicos, 1981.
-4) KRUG, F.J. (org.) Métodos de preparo de amostras: fundamentos sobre métodos de preparo de amostras orgânicas e inorgânicas para análise elementar. 1. ed. Piracicaba: Edição do autor, 2008. 
-5) COLLINS, C.H.; BRAGA, G.L.; BONATO, P.S. (Org.) Fundamentos de cromatografia. 1. ed. Campinas: Editora da UNICAMP, 2006.
-Bibliografia complementar
-1) CHRISTIAN, G.D. Analytical chemistry. 4. ed. Nova York: John Wiley &amp; Sons, 1986.
-2) DYER, J.R. Aplicação da espectroscopia de absorção aos compostos orgânicos. 1. Reimpressão. São Paulo: Edgard Blucher, 1977.
-3) SILVERSTEIN, R.M.; WEBSTER, F.X.; KIEMLE, D.J. Identificação espectrométrica de compostos orgânicos. 7. ed. Rio de Janeiro: Livros Técnicos e Científicos, 2007.
-4) WILLARD, H.H.; MERRITE, L.; DEAB, J. Instrumentação analítica. Lisboa: Fundação Calouste Gulbekian,  1989.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -503,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,106 +604,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4001.xlsx
+++ b/docs/assets/disciplinas/LOQ4001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos as bases teóricas e experimentais dos métodos instrumentais (quantitativos e qualitativos) de uso mais frequente na área química, incluindo o preparo de amostras e a criteriosa avaliação dos resultados analíticos. Ao final da disciplina, o aluno deve ser capaz de escolher e aplicar a metodologia mais adequada à solução dos problemas analíticos em geral, assim como interpretar resultados de análises químicas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>2341641 - Maria da Rosa Capri</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução à Análise Instrumental. Preparo de amostras. Métodos Espectroanalíticos: UV/Visível, Absorção Atômica, Emissão Atômica, Infravermelho. Métodos Eletroanalíticos: Potenciometria e Condutimetria. Métodos Cromatográficos: Cromatografia a Gás e Cromatografia Líquida de Alta Eficiência.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,15 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Introdução à Análise Instrumental. Correlação entre métodos analíticos instrumentais e por via úmida. Preparo de amostras em meio sólido e em meios líquidos aquosos e não aquosos. Solubilização, digestão, fontes de energia aplicadas ao preparo, estabilização de amostras.
+2) Introdução aos Métodos Espectroanalíticos: Natureza da energia radiante. Espectro eletromagnético. Interação da radiação com a matéria. Absorção seletiva. Absortividade. Lei de Beer-Lambert. Curvas analíticas. 
+3) Introdução à Espectrofotometria no UV/Visível. Instrumentação. Aplicações e interpretação de resultados. Determinações simultâneas. Parte Experimental.
+4) Introdução às Espectrometrias de Absorção e de Emissão Atômicas. Instrumentação. Interferências. Origem do espectro de emissão atômica. Fontes de atomização e de excitação. Calibração. Aplicações e interpretação de resultados. Parte Experimental.
+5) Introdução à Espectroscopia no Infravermelho. Instrumentação. Interpretação de espectros. Aplicações. Parte Experimental.
+6) Introdução aos Métodos Eletroanalíticos: Potenciometria e Condutimetria. Instrumentação.  Métodos diretos e indiretos. Aplicações e interpretação de resultados. Parte experimental.
+7) Introdução aos Métodos Cromatográficos. Conceitos básicos dos métodos de separação. Fases móvel e estacionária. Cromatografia planar em papel e em camada delgada. Cromatografia em coluna: cromatografia a gás e cromatografia líquida de alta eficiência. Instrumentação. Aplicações e interpretação de resultados. Parte Experimental.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +112,35 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação da disciplina será feita por meio de avaliações escritas individuais (provas) e avaliações de atividades em grupo (relatórios das aulas práticas e/ou trabalhos escritos e/ou apresentações de seminários).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação da disciplina será feita por meio de avaliações escritas individuais (provas) e avaliações de atividades em grupo (relatórios das aulas práticas e/ou trabalhos escritos e/ou apresentações de seminários).</t>
+    <t>A Média Final (MF) será calculada pela média entre todas as avaliações realizadas durante o semestre, sendo o conjunto das avaliações individuais correspondentes a 75% da composição de MF e o conjunto das avaliações em grupo correspondentes a 25% da composição de MF. Será aprovado o aluno que obtiver MF maior ou igual a cinco e frequência mínima de 70% no semestre.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
-  </si>
-  <si>
-    <t>A Média Final (MF) será calculada pela média entre todas as avaliações realizadas durante o semestre, sendo o conjunto das avaliações individuais correspondentes a 75% da composição de MF e o conjunto das avaliações em grupo correspondentes a 25% da composição de MF. Será aprovado o aluno que obtiver MF maior ou igual a cinco e frequência mínima de 70% no semestre.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
   </si>
   <si>
     <t>No período de Recuperação haverá horário previamente definido para resolução de dúvidas e será realizada uma avaliação escrita individual (Prova da Recuperação = PR), com conteúdo de todos os tópicos apresentados na disciplina durante o semestre.
 A Nota de Recuperação (NR) será dada pela média aritmética entre a Média do Semestre (MF) e a Prova da Recuperação (PR), sendo considerado aprovado o aluno que obtiver NR maior ou igual a cinco.</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>1) Skoog, D.A.; Holler, F.J. ; Nieman, T.A. Princípios de análise instrumental. 5. ed. Porto Alegre: Bookman,  2002.
+2) MENDHAM,J.; DENNEY, R.C.; BARNES, J.D. ; Thomas, M. Vogel: análise química quantitativa. 6. ed. Rio de Janeiro: Livros Técnicos e Científicos, 2002.
+3) OHLWEILER, O.A. Fundamentos de análise instrumental. Rio de Janeiro: Livros Técnicos e Científicos, 1981.
+4) KRUG, F.J. (org.) Métodos de preparo de amostras: fundamentos sobre métodos de preparo de amostras orgânicas e inorgânicas para análise elementar. 1. ed. Piracicaba: Edição do autor, 2008. 
+5) COLLINS, C.H.; BRAGA, G.L.; BONATO, P.S. (Org.) Fundamentos de cromatografia. 1. ed. Campinas: Editora da UNICAMP, 2006.
+Bibliografia complementar
+1) CHRISTIAN, G.D. Analytical chemistry. 4. ed. Nova York: John Wiley &amp; Sons, 1986.
+2) DYER, J.R. Aplicação da espectroscopia de absorção aos compostos orgânicos. 1. Reimpressão. São Paulo: Edgard Blucher, 1977.
+3) SILVERSTEIN, R.M.; WEBSTER, F.X.; KIEMLE, D.J. Identificação espectrométrica de compostos orgânicos. 7. ed. Rio de Janeiro: Livros Técnicos e Científicos, 2007.
+4) WILLARD, H.H.; MERRITE, L.; DEAB, J. Instrumentação analítica. Lisboa: Fundação Calouste Gulbekian,  1989.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -479,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -604,98 +628,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
